--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Seleniumn</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Mobile submitted successfully !</t>
+  </si>
+  <si>
+    <t>jananishivanyaa</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,15 +436,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="96.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,13 +453,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -467,13 +467,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25">
@@ -487,12 +487,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Abirami@0605"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -500,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,48 +522,48 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1234567890</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -569,13 +572,13 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
